--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E8A62EE-7119-485D-B2ED-68CC99307114}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF61D84-323D-4B37-B42B-C1898C81416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2719" uniqueCount="1378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1539">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -4168,6 +4168,489 @@
   </si>
   <si>
     <t>varshavaru2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Aqhsa sadiya</t>
+  </si>
+  <si>
+    <t>aqhsasadiya@gmail.com</t>
+  </si>
+  <si>
+    <t>Krishna Sudhir Malgi</t>
+  </si>
+  <si>
+    <t>krishnamalgi6@gmail.com</t>
+  </si>
+  <si>
+    <t>Likhithesh HS</t>
+  </si>
+  <si>
+    <t>likihithesh@gmail.com</t>
+  </si>
+  <si>
+    <t>Naveen Kumar V</t>
+  </si>
+  <si>
+    <t>nv155215@gmail.com</t>
+  </si>
+  <si>
+    <t>J P Shreelakshmi</t>
+  </si>
+  <si>
+    <t>appiteertha@Gmail.com</t>
+  </si>
+  <si>
+    <t>Vishal patil</t>
+  </si>
+  <si>
+    <t>Vishal484855@gmail.com</t>
+  </si>
+  <si>
+    <t>Prakash</t>
+  </si>
+  <si>
+    <t>prakashbiradar619@gmail.com</t>
+  </si>
+  <si>
+    <t>Kruthika Rajashekaraiah</t>
+  </si>
+  <si>
+    <t>kruthikar078@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammed Nowman</t>
+  </si>
+  <si>
+    <t>noumanmohammed906@gmail.com</t>
+  </si>
+  <si>
+    <t>khaja Bandenawaz</t>
+  </si>
+  <si>
+    <t>khajabandenawaz9463@gmail.com</t>
+  </si>
+  <si>
+    <t>Chandrika H</t>
+  </si>
+  <si>
+    <t>Chandrikachandu1029@gmail.Com</t>
+  </si>
+  <si>
+    <t>Lokesh NK</t>
+  </si>
+  <si>
+    <t>lokeshlokink7@gmail.com</t>
+  </si>
+  <si>
+    <t>Darshan A P</t>
+  </si>
+  <si>
+    <t>darshanap0417@gmail.com</t>
+  </si>
+  <si>
+    <t>Kiran Kumar M V</t>
+  </si>
+  <si>
+    <t>kmv161645@gmail.com</t>
+  </si>
+  <si>
+    <t>USHA I</t>
+  </si>
+  <si>
+    <t>ushai.22ds@saividya.ac.in</t>
+  </si>
+  <si>
+    <t>Charitha M G</t>
+  </si>
+  <si>
+    <t>charithamg02@gmail.com</t>
+  </si>
+  <si>
+    <t>Channaveeraswami C Hiremath</t>
+  </si>
+  <si>
+    <t>cghiremath1971@gmail.com</t>
+  </si>
+  <si>
+    <t>Chethan kumar sp</t>
+  </si>
+  <si>
+    <t>Chethuchitta@gmail.com</t>
+  </si>
+  <si>
+    <t>HOYSALA MG</t>
+  </si>
+  <si>
+    <t>jeevanmanu51@gmail.com</t>
+  </si>
+  <si>
+    <t>Sharath kumar ls</t>
+  </si>
+  <si>
+    <t>sharathkumarls144@gmail.com</t>
+  </si>
+  <si>
+    <t>TRUPTHI GS</t>
+  </si>
+  <si>
+    <t>gstrupthi@gmail.com</t>
+  </si>
+  <si>
+    <t>Shivanand Prakash Birajdar</t>
+  </si>
+  <si>
+    <t>Shivabirajdar13@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjay H R</t>
+  </si>
+  <si>
+    <t>sanjaysanju97534@gmail.com</t>
+  </si>
+  <si>
+    <t>DILAN B D</t>
+  </si>
+  <si>
+    <t>dilanbolluru9743@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanket dandgund</t>
+  </si>
+  <si>
+    <t>dandgundsanket@gmail.com</t>
+  </si>
+  <si>
+    <t>Hemaraj um</t>
+  </si>
+  <si>
+    <t>hemarajum1947@gmail.com</t>
+  </si>
+  <si>
+    <t>Aishwarya R</t>
+  </si>
+  <si>
+    <t>aishur275@gmail.com</t>
+  </si>
+  <si>
+    <t>SANJAY A R</t>
+  </si>
+  <si>
+    <t>sanjuar1122@gmail.com</t>
+  </si>
+  <si>
+    <t>PRAMODA K M</t>
+  </si>
+  <si>
+    <t>pramodakm423@gmail.com</t>
+  </si>
+  <si>
+    <t>Naveen Prahalad RV</t>
+  </si>
+  <si>
+    <t>naveenprahalad5@gmail.com</t>
+  </si>
+  <si>
+    <t>Sushvash D</t>
+  </si>
+  <si>
+    <t>dsushvash@gmail.com</t>
+  </si>
+  <si>
+    <t>PRAJWAL J</t>
+  </si>
+  <si>
+    <t>prajwalprajwal1030@gmail.com</t>
+  </si>
+  <si>
+    <t>Sumukha S R</t>
+  </si>
+  <si>
+    <t>sumukhraj3@gmail.com</t>
+  </si>
+  <si>
+    <t>Sudeep Amaragond</t>
+  </si>
+  <si>
+    <t>sudeepamargond2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Prashanth</t>
+  </si>
+  <si>
+    <t>prashantsaibanna@gmail.com</t>
+  </si>
+  <si>
+    <t>Varuna PL</t>
+  </si>
+  <si>
+    <t>varunpl2004@gmail.com</t>
+  </si>
+  <si>
+    <t>H M REVANASIDDESHWRA</t>
+  </si>
+  <si>
+    <t>reonesiddu@gmail.com</t>
+  </si>
+  <si>
+    <t>PRUTHVIRAJ PHADE</t>
+  </si>
+  <si>
+    <t>pruthvirajphade@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjana M P</t>
+  </si>
+  <si>
+    <t>sanjanamp17@gmail.com</t>
+  </si>
+  <si>
+    <t>Priya</t>
+  </si>
+  <si>
+    <t>kaknalepriya@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja GM</t>
+  </si>
+  <si>
+    <t>poojagm976@gmail.com</t>
+  </si>
+  <si>
+    <t>NEETA T P</t>
+  </si>
+  <si>
+    <t>neeta.tp18@gmail.com</t>
+  </si>
+  <si>
+    <t>R Laxmi Priya</t>
+  </si>
+  <si>
+    <t>llaxmipriyar@gmail.com</t>
+  </si>
+  <si>
+    <t>Harshitha G</t>
+  </si>
+  <si>
+    <t>harshithahelenz262626@gmail.com</t>
+  </si>
+  <si>
+    <t>Brinda.G</t>
+  </si>
+  <si>
+    <t>gbrinda753@gmail.com</t>
+  </si>
+  <si>
+    <t>Chandhana C</t>
+  </si>
+  <si>
+    <t>Chandhanac72@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhavana KA</t>
+  </si>
+  <si>
+    <t>bhavanaka06@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavankumar Basavanneppa Hirehal</t>
+  </si>
+  <si>
+    <t>pavankumarhirehal3@gmail.com</t>
+  </si>
+  <si>
+    <t>Prajwal K H</t>
+  </si>
+  <si>
+    <t>Prajwalkh968@gmail.com</t>
+  </si>
+  <si>
+    <t>Basavaraj</t>
+  </si>
+  <si>
+    <t>princebasup@gmail.com</t>
+  </si>
+  <si>
+    <t>ASHWIN JUDE K S</t>
+  </si>
+  <si>
+    <t>ashwin9526@gmail.com</t>
+  </si>
+  <si>
+    <t>Salima Banu</t>
+  </si>
+  <si>
+    <t>salima3271@gmail.com</t>
+  </si>
+  <si>
+    <t>Ramya Veeresh Varamurthi</t>
+  </si>
+  <si>
+    <t>ramyavaramurthi@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhishek Rayaraddi</t>
+  </si>
+  <si>
+    <t>abhishekrayaraddi7@gmail.com</t>
+  </si>
+  <si>
+    <t>Shasheelkumar Jambagi</t>
+  </si>
+  <si>
+    <t>shasheelkumarjambagi2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Santhosh B</t>
+  </si>
+  <si>
+    <t>santhoshbsanthu04@gmail.com</t>
+  </si>
+  <si>
+    <t>Sagar K B</t>
+  </si>
+  <si>
+    <t>sagarsag026@gmail.com</t>
+  </si>
+  <si>
+    <t>Basavaraj A</t>
+  </si>
+  <si>
+    <t>basu.basavaraj4543@gmail.com</t>
+  </si>
+  <si>
+    <t>Harshitha M S</t>
+  </si>
+  <si>
+    <t>hharshithashivappa@gmail.com</t>
+  </si>
+  <si>
+    <t>Tarannum Firdous</t>
+  </si>
+  <si>
+    <t>tarannumfirdous895@gmail.com</t>
+  </si>
+  <si>
+    <t>Ashitha</t>
+  </si>
+  <si>
+    <t>ashithashetty0123@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandhya G</t>
+  </si>
+  <si>
+    <t>sg770469@gmail.com</t>
+  </si>
+  <si>
+    <t>Naveen veeranagouda huded</t>
+  </si>
+  <si>
+    <t>naveenhuded76@gmail.com</t>
+  </si>
+  <si>
+    <t>Yogita Singe</t>
+  </si>
+  <si>
+    <t>Yogitasinge1234@gmail.com</t>
+  </si>
+  <si>
+    <t>Sumit Rathod</t>
+  </si>
+  <si>
+    <t>sumithrathod44@gmail.com</t>
+  </si>
+  <si>
+    <t>Darshan B C</t>
+  </si>
+  <si>
+    <t>darshanbc.114@gmail.com</t>
+  </si>
+  <si>
+    <t>PRAJWAL BIRADAR</t>
+  </si>
+  <si>
+    <t>biradarprajwal999@gmail.com</t>
+  </si>
+  <si>
+    <t>Raksha R</t>
+  </si>
+  <si>
+    <t>raksharmanchale@gmail.com</t>
+  </si>
+  <si>
+    <t>Belaal</t>
+  </si>
+  <si>
+    <t>syedbelaal4@gmail.com</t>
+  </si>
+  <si>
+    <t>T G Surya</t>
+  </si>
+  <si>
+    <t>tgsurya1906@gmail.com</t>
+  </si>
+  <si>
+    <t>Bhavani B</t>
+  </si>
+  <si>
+    <t>bhavanibasavraju123@gmail.com</t>
+  </si>
+  <si>
+    <t>Pooja B</t>
+  </si>
+  <si>
+    <t>poojabalakrishna9535@gmail.com</t>
+  </si>
+  <si>
+    <t>RIZA</t>
+  </si>
+  <si>
+    <t>rizaa.rz56@gmail.com</t>
+  </si>
+  <si>
+    <t>D S KADEEJATH ZAIMA</t>
+  </si>
+  <si>
+    <t>shafizaima@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhigna N Shetty</t>
+  </si>
+  <si>
+    <t>abhignanshetty12@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhanush gowda AK</t>
+  </si>
+  <si>
+    <t>akdhanushgowda82@gmail.com</t>
+  </si>
+  <si>
+    <t>Deepak Kopparad</t>
+  </si>
+  <si>
+    <t>deepukopparad@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavita Hangaragi</t>
+  </si>
+  <si>
+    <t>kavitahangaragi09@gmail.com</t>
+  </si>
+  <si>
+    <t>Chaya shetty</t>
+  </si>
+  <si>
+    <t>chayushetty5005@gmail.com</t>
+  </si>
+  <si>
+    <t>mahalakshmi</t>
+  </si>
+  <si>
+    <t>mahalakshmimahalaksmi39@gmail.com</t>
+  </si>
+  <si>
+    <t>mksanjay16@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -4519,10 +5002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
-  <dimension ref="A1:E907"/>
+  <dimension ref="A1:E1019"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D890" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E907"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A908" sqref="A908:XFD908"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19945,6 +20428,1910 @@
         <v>0</v>
       </c>
     </row>
+    <row r="908" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A908">
+        <v>907</v>
+      </c>
+      <c r="B908" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C908" t="s">
+        <v>1379</v>
+      </c>
+      <c r="D908" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E908" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="909" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A909">
+        <v>908</v>
+      </c>
+      <c r="B909" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C909" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D909" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E909" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="910" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A910">
+        <v>909</v>
+      </c>
+      <c r="B910" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C910" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D910" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E910" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="911" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A911">
+        <v>910</v>
+      </c>
+      <c r="B911" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C911" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D911" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E911" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="912" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A912">
+        <v>911</v>
+      </c>
+      <c r="B912" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C912" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D912" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E912" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="913" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A913">
+        <v>912</v>
+      </c>
+      <c r="B913" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C913" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D913" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E913" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="914" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A914">
+        <v>913</v>
+      </c>
+      <c r="B914" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C914" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D914" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E914" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="915" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A915">
+        <v>914</v>
+      </c>
+      <c r="B915" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C915" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D915" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E915" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="916" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A916">
+        <v>915</v>
+      </c>
+      <c r="B916" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C916" t="s">
+        <v>1391</v>
+      </c>
+      <c r="D916" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E916" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="917" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A917">
+        <v>916</v>
+      </c>
+      <c r="B917" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C917" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D917" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E917" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="918" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A918">
+        <v>917</v>
+      </c>
+      <c r="B918" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C918" t="s">
+        <v>1393</v>
+      </c>
+      <c r="D918" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E918" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="919" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A919">
+        <v>918</v>
+      </c>
+      <c r="B919" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C919" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D919" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E919" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="920" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A920">
+        <v>919</v>
+      </c>
+      <c r="B920" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C920" t="s">
+        <v>1252</v>
+      </c>
+      <c r="D920" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E920" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="921" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A921">
+        <v>920</v>
+      </c>
+      <c r="B921" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C921" t="s">
+        <v>1395</v>
+      </c>
+      <c r="D921" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E921" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="922" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A922">
+        <v>921</v>
+      </c>
+      <c r="B922" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C922" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D922" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E922" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="923" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A923">
+        <v>922</v>
+      </c>
+      <c r="B923" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C923" t="s">
+        <v>1385</v>
+      </c>
+      <c r="D923" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E923" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="924" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A924">
+        <v>923</v>
+      </c>
+      <c r="B924" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C924" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D924" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E924" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="925" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A925">
+        <v>924</v>
+      </c>
+      <c r="B925" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C925" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E925" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="926" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A926">
+        <v>925</v>
+      </c>
+      <c r="B926" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C926" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E926" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="927" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A927">
+        <v>926</v>
+      </c>
+      <c r="B927" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C927" t="s">
+        <v>1405</v>
+      </c>
+      <c r="D927" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E927" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="928" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A928">
+        <v>927</v>
+      </c>
+      <c r="B928" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C928" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E928" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="929" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A929">
+        <v>928</v>
+      </c>
+      <c r="B929" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C929" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E929" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="930" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A930">
+        <v>929</v>
+      </c>
+      <c r="B930" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C930" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E930" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A931">
+        <v>930</v>
+      </c>
+      <c r="B931" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C931" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E931" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="932" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A932">
+        <v>931</v>
+      </c>
+      <c r="B932" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C932" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E932" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="933" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A933">
+        <v>932</v>
+      </c>
+      <c r="B933" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C933" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E933" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="934" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A934">
+        <v>933</v>
+      </c>
+      <c r="B934" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C934" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E934" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="935" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A935">
+        <v>934</v>
+      </c>
+      <c r="B935" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C935" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E935" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="936" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A936">
+        <v>935</v>
+      </c>
+      <c r="B936" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C936" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E936" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="937" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A937">
+        <v>936</v>
+      </c>
+      <c r="B937" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C937" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E937" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="938" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A938">
+        <v>937</v>
+      </c>
+      <c r="B938" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C938" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E938" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="939" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A939">
+        <v>938</v>
+      </c>
+      <c r="B939" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C939" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E939" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="940" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A940">
+        <v>939</v>
+      </c>
+      <c r="B940" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C940" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E940" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="941" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A941">
+        <v>940</v>
+      </c>
+      <c r="B941" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C941" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E941" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="942" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A942">
+        <v>941</v>
+      </c>
+      <c r="B942" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C942" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E942" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="943" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A943">
+        <v>942</v>
+      </c>
+      <c r="B943" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C943" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E943" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="944" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A944">
+        <v>943</v>
+      </c>
+      <c r="B944" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C944" t="s">
+        <v>1435</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E944" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="945" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A945">
+        <v>944</v>
+      </c>
+      <c r="B945" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C945" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E945" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="946" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A946">
+        <v>945</v>
+      </c>
+      <c r="B946" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C946" t="s">
+        <v>1439</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E946" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="947" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A947">
+        <v>946</v>
+      </c>
+      <c r="B947" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C947" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E947" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="948" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A948">
+        <v>947</v>
+      </c>
+      <c r="B948" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C948" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E948" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="949" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A949">
+        <v>948</v>
+      </c>
+      <c r="B949" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C949" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E949" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A950">
+        <v>949</v>
+      </c>
+      <c r="B950" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C950" t="s">
+        <v>1447</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E950" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="951" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A951">
+        <v>950</v>
+      </c>
+      <c r="B951" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C951" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E951" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="952" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A952">
+        <v>951</v>
+      </c>
+      <c r="B952" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C952" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E952" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="953" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A953">
+        <v>952</v>
+      </c>
+      <c r="B953" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C953" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E953" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="954" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A954">
+        <v>953</v>
+      </c>
+      <c r="B954" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C954" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E954" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="955" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A955">
+        <v>954</v>
+      </c>
+      <c r="B955" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C955" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E955" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="956" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A956">
+        <v>955</v>
+      </c>
+      <c r="B956" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C956" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E956" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="957" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A957">
+        <v>956</v>
+      </c>
+      <c r="B957" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C957" t="s">
+        <v>1461</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E957" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="958" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A958">
+        <v>957</v>
+      </c>
+      <c r="B958" t="s">
+        <v>727</v>
+      </c>
+      <c r="C958" t="s">
+        <v>728</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E958" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="959" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A959">
+        <v>958</v>
+      </c>
+      <c r="B959" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C959" t="s">
+        <v>1463</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E959" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="960" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A960">
+        <v>959</v>
+      </c>
+      <c r="B960" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C960" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E960" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="961" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A961">
+        <v>960</v>
+      </c>
+      <c r="B961" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C961" t="s">
+        <v>1467</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E961" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="962" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A962">
+        <v>961</v>
+      </c>
+      <c r="B962" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C962" t="s">
+        <v>1469</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E962" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="963" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A963">
+        <v>962</v>
+      </c>
+      <c r="B963" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C963" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E963" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="964" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A964">
+        <v>963</v>
+      </c>
+      <c r="B964" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C964" t="s">
+        <v>1473</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E964" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="965" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A965">
+        <v>964</v>
+      </c>
+      <c r="B965" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C965" t="s">
+        <v>1471</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E965" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="966" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A966">
+        <v>965</v>
+      </c>
+      <c r="B966" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C966" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E966" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="967" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A967">
+        <v>966</v>
+      </c>
+      <c r="B967" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C967" t="s">
+        <v>1475</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E967" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="968" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A968">
+        <v>967</v>
+      </c>
+      <c r="B968" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C968" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E968" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="969" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A969">
+        <v>968</v>
+      </c>
+      <c r="B969" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C969" t="s">
+        <v>1479</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E969" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="970" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A970">
+        <v>969</v>
+      </c>
+      <c r="B970" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C970" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E970" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="971" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A971">
+        <v>970</v>
+      </c>
+      <c r="B971" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C971" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E971" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="972" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A972">
+        <v>971</v>
+      </c>
+      <c r="B972" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C972" t="s">
+        <v>1481</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E972" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="973" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A973">
+        <v>972</v>
+      </c>
+      <c r="B973" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C973" t="s">
+        <v>1445</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E973" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="974" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A974">
+        <v>973</v>
+      </c>
+      <c r="B974" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C974" t="s">
+        <v>1483</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E974" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="975" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A975">
+        <v>974</v>
+      </c>
+      <c r="B975" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C975" t="s">
+        <v>1485</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E975" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="976" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A976">
+        <v>975</v>
+      </c>
+      <c r="B976" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C976" t="s">
+        <v>1487</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E976" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="977" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A977">
+        <v>976</v>
+      </c>
+      <c r="B977" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C977" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E977" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="978" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A978">
+        <v>977</v>
+      </c>
+      <c r="B978" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C978" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E978" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="979" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A979">
+        <v>978</v>
+      </c>
+      <c r="B979" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C979" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E979" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="980" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A980">
+        <v>979</v>
+      </c>
+      <c r="B980" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C980" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E980" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="981" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A981">
+        <v>980</v>
+      </c>
+      <c r="B981" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C981" t="s">
+        <v>1495</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E981" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="982" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A982">
+        <v>981</v>
+      </c>
+      <c r="B982" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C982" t="s">
+        <v>1489</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E982" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="983" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A983">
+        <v>982</v>
+      </c>
+      <c r="B983" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C983" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E983" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="984" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A984">
+        <v>983</v>
+      </c>
+      <c r="B984" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C984" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E984" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="985" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A985">
+        <v>984</v>
+      </c>
+      <c r="B985" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C985" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E985" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="986" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A986">
+        <v>985</v>
+      </c>
+      <c r="B986" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C986" t="s">
+        <v>1497</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E986" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="987" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A987">
+        <v>986</v>
+      </c>
+      <c r="B987" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C987" t="s">
+        <v>1499</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E987" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A988">
+        <v>987</v>
+      </c>
+      <c r="B988" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C988" t="s">
+        <v>1501</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E988" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="989" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A989">
+        <v>988</v>
+      </c>
+      <c r="B989" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C989" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E989" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="990" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A990">
+        <v>989</v>
+      </c>
+      <c r="B990" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C990" t="s">
+        <v>1503</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E990" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="991" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A991">
+        <v>990</v>
+      </c>
+      <c r="B991" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C991" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E991" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A992">
+        <v>991</v>
+      </c>
+      <c r="B992" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C992" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E992" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="993" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A993">
+        <v>992</v>
+      </c>
+      <c r="B993" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C993" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E993" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="994" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A994">
+        <v>993</v>
+      </c>
+      <c r="B994" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C994" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E994" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="995" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A995">
+        <v>994</v>
+      </c>
+      <c r="B995" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C995" t="s">
+        <v>1505</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E995" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="996" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A996">
+        <v>995</v>
+      </c>
+      <c r="B996" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C996" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E996" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="997" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A997">
+        <v>996</v>
+      </c>
+      <c r="B997" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C997" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E997" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="998" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A998">
+        <v>997</v>
+      </c>
+      <c r="B998" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C998" t="s">
+        <v>1507</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E998" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="999" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A999">
+        <v>998</v>
+      </c>
+      <c r="B999" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C999" t="s">
+        <v>1509</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E999" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1000">
+        <v>999</v>
+      </c>
+      <c r="B1000" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1000" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1001">
+        <v>1000</v>
+      </c>
+      <c r="B1001" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1001" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1002">
+        <v>1001</v>
+      </c>
+      <c r="B1002" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1002" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1003">
+        <v>1002</v>
+      </c>
+      <c r="B1003" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1003" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1004">
+        <v>1003</v>
+      </c>
+      <c r="B1004" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>1513</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1004" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1005">
+        <v>1004</v>
+      </c>
+      <c r="B1005" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1005" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1006">
+        <v>1005</v>
+      </c>
+      <c r="B1006" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>1515</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1006" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1007">
+        <v>1006</v>
+      </c>
+      <c r="B1007" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>1517</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1007" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1008">
+        <v>1007</v>
+      </c>
+      <c r="B1008" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>1519</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1008" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1009">
+        <v>1008</v>
+      </c>
+      <c r="B1009" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1009" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1010">
+        <v>1009</v>
+      </c>
+      <c r="B1010" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>1521</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1010" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1011">
+        <v>1010</v>
+      </c>
+      <c r="B1011" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1011" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1012">
+        <v>1011</v>
+      </c>
+      <c r="B1012" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>1525</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1012" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1013">
+        <v>1012</v>
+      </c>
+      <c r="B1013" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>1527</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1013" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1014">
+        <v>1013</v>
+      </c>
+      <c r="B1014" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>1529</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1014" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1015">
+        <v>1014</v>
+      </c>
+      <c r="B1015" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>1531</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1015" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1016">
+        <v>1015</v>
+      </c>
+      <c r="B1016" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>1533</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1016" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1017">
+        <v>1016</v>
+      </c>
+      <c r="B1017" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1017" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1018">
+        <v>1017</v>
+      </c>
+      <c r="B1018" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>1537</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1018" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1019">
+        <v>1018</v>
+      </c>
+      <c r="B1019" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>1538</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1019" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FF61D84-323D-4B37-B42B-C1898C81416E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DBF03-55B8-49FA-9A51-E9003514E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3055" uniqueCount="1539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="1842">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -4651,6 +4651,915 @@
   </si>
   <si>
     <t>mksanjay16@gmail.com</t>
+  </si>
+  <si>
+    <t>Ankith V S</t>
+  </si>
+  <si>
+    <t>ankithvs6@gmail.com</t>
+  </si>
+  <si>
+    <t>Amulya shet</t>
+  </si>
+  <si>
+    <t>amulyashet07@gmail.com</t>
+  </si>
+  <si>
+    <t>druthi jain sc</t>
+  </si>
+  <si>
+    <t>djainsc@gmail.com</t>
+  </si>
+  <si>
+    <t>Anjana R</t>
+  </si>
+  <si>
+    <t>anjanar1969@gmail.com</t>
+  </si>
+  <si>
+    <t>Shayila B A</t>
+  </si>
+  <si>
+    <t>shallushayila@gmail.com</t>
+  </si>
+  <si>
+    <t>S Hariprasad</t>
+  </si>
+  <si>
+    <t>shariprasad223@gmail.com</t>
+  </si>
+  <si>
+    <t>SHIVALINGAPPA</t>
+  </si>
+  <si>
+    <t>prashantkalashetty999@gmail.com</t>
+  </si>
+  <si>
+    <t>Lohith Gowda H G</t>
+  </si>
+  <si>
+    <t>lohithgowdagrm@gmail.com</t>
+  </si>
+  <si>
+    <t>SONY YALLAPPA PAGAD</t>
+  </si>
+  <si>
+    <t>sonypagad8@gmail.com</t>
+  </si>
+  <si>
+    <t>Neha C C</t>
+  </si>
+  <si>
+    <t>nehachikkalkar@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishan Kumar</t>
+  </si>
+  <si>
+    <t>kishanacharya860@gmail.com</t>
+  </si>
+  <si>
+    <t>APOORVA P A</t>
+  </si>
+  <si>
+    <t>apoorvasullia85@gmail.com</t>
+  </si>
+  <si>
+    <t>K Harsh</t>
+  </si>
+  <si>
+    <t>harshmk6240@gmail.com</t>
+  </si>
+  <si>
+    <t>Jeevitha A V</t>
+  </si>
+  <si>
+    <t>jeevithashetty424@gmail.com</t>
+  </si>
+  <si>
+    <t>bhagyanayak9591@gmail.com</t>
+  </si>
+  <si>
+    <t>Spandana S T</t>
+  </si>
+  <si>
+    <t>spandanast01@gmail.com</t>
+  </si>
+  <si>
+    <t>Diwakar P</t>
+  </si>
+  <si>
+    <t>diwp22ece@cmrit.ac.in</t>
+  </si>
+  <si>
+    <t>Dhanush gowda MR</t>
+  </si>
+  <si>
+    <t>dhannushgowdamr@gmail.com</t>
+  </si>
+  <si>
+    <t>Vinod R</t>
+  </si>
+  <si>
+    <t>vinodh2254@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavya</t>
+  </si>
+  <si>
+    <t>kavyabkavya641@gmail.com</t>
+  </si>
+  <si>
+    <t>Aparna Tudavekar</t>
+  </si>
+  <si>
+    <t>aptudavekar@gmail.com</t>
+  </si>
+  <si>
+    <t>Megha Manjunath Bandi</t>
+  </si>
+  <si>
+    <t>bmegha2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Shaik hazgar</t>
+  </si>
+  <si>
+    <t>shaik22ec043@drttit.edu.in</t>
+  </si>
+  <si>
+    <t>Bhagyashri Sanjay Patil</t>
+  </si>
+  <si>
+    <t>bhagyapatil017@gmail.com</t>
+  </si>
+  <si>
+    <t>Mansi M Somanache</t>
+  </si>
+  <si>
+    <t>mansisomanache@gmail.com</t>
+  </si>
+  <si>
+    <t>Sahana N</t>
+  </si>
+  <si>
+    <t>nsahanansahana84@gmail.com</t>
+  </si>
+  <si>
+    <t>Thejomurthi</t>
+  </si>
+  <si>
+    <t>thejomurthia77@gmail.com</t>
+  </si>
+  <si>
+    <t>Shilpa Biradar</t>
+  </si>
+  <si>
+    <t>shilpabiradarshilpa9@gmail.com</t>
+  </si>
+  <si>
+    <t>Sneha Kadappa Timmavvagol</t>
+  </si>
+  <si>
+    <t>timmavvagolsneha31@gmail.com</t>
+  </si>
+  <si>
+    <t>MANJUNATH ADRUSHYAPPA KOTTALAMANI</t>
+  </si>
+  <si>
+    <t>kottalamanim@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammad Numan Shaikh</t>
+  </si>
+  <si>
+    <t>numannumanshaikh7@gmail.com</t>
+  </si>
+  <si>
+    <t>Nithish Kumar B</t>
+  </si>
+  <si>
+    <t>nithishkumarb79@gmail.com</t>
+  </si>
+  <si>
+    <t>karthik143466@gmail.com</t>
+  </si>
+  <si>
+    <t>Raghu</t>
+  </si>
+  <si>
+    <t>mnr15567@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhishek</t>
+  </si>
+  <si>
+    <t>abhisheksnayak6@gmail.com</t>
+  </si>
+  <si>
+    <t>Naveen S R</t>
+  </si>
+  <si>
+    <t>naveengowdasr246@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjay KR</t>
+  </si>
+  <si>
+    <t>sanjusanjayravi222@gmail.com</t>
+  </si>
+  <si>
+    <t>Nafeesa Rehmat</t>
+  </si>
+  <si>
+    <t>4ra22cs066@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Mohan GR</t>
+  </si>
+  <si>
+    <t>mohangowdar30@gmail.com</t>
+  </si>
+  <si>
+    <t>Ibadi kulsum</t>
+  </si>
+  <si>
+    <t>ibadikulsum9@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanketh H</t>
+  </si>
+  <si>
+    <t>4ra22cs090@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Krithika KS</t>
+  </si>
+  <si>
+    <t>kruthikaksuresh@gmail.com</t>
+  </si>
+  <si>
+    <t>Anurag Ugargol</t>
+  </si>
+  <si>
+    <t>anuragugargol@gmail.com</t>
+  </si>
+  <si>
+    <t>Sudeep</t>
+  </si>
+  <si>
+    <t>sudeepkambar19@gmail.com</t>
+  </si>
+  <si>
+    <t>Chandana C</t>
+  </si>
+  <si>
+    <t>chandru810597@gmail.com</t>
+  </si>
+  <si>
+    <t>Ananya T C</t>
+  </si>
+  <si>
+    <t>ananyagowda2710@gmail.com</t>
+  </si>
+  <si>
+    <t>Yakshi Lall</t>
+  </si>
+  <si>
+    <t>yakshilall2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Sri Lakshmi Satish H</t>
+  </si>
+  <si>
+    <t>vvce22ec0069@vvce.ac.in</t>
+  </si>
+  <si>
+    <t>Theertha R</t>
+  </si>
+  <si>
+    <t>theertha22cs089@drttit.edu.in</t>
+  </si>
+  <si>
+    <t>SUSHMA D PATIL</t>
+  </si>
+  <si>
+    <t>sushmapatil577@gmail.com</t>
+  </si>
+  <si>
+    <t>NAGANAVYA CH</t>
+  </si>
+  <si>
+    <t>navyachitturi37@gmail.com</t>
+  </si>
+  <si>
+    <t>Anish</t>
+  </si>
+  <si>
+    <t>pawaranish005@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanyojita Bastawadi</t>
+  </si>
+  <si>
+    <t>sanyojitabastawadi@gmail.com</t>
+  </si>
+  <si>
+    <t>Shreeja G</t>
+  </si>
+  <si>
+    <t>shreejag2004@gmail.com</t>
+  </si>
+  <si>
+    <t>CHETHAN M</t>
+  </si>
+  <si>
+    <t>chethann946@gmail.com</t>
+  </si>
+  <si>
+    <t>Kartik patil</t>
+  </si>
+  <si>
+    <t>patilkartik9916@gmail.com</t>
+  </si>
+  <si>
+    <t>Muskan</t>
+  </si>
+  <si>
+    <t>mm1986742@gmail.com</t>
+  </si>
+  <si>
+    <t>Sushma C Y</t>
+  </si>
+  <si>
+    <t>sushmasushu2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Pallavi</t>
+  </si>
+  <si>
+    <t>pallavishetty852@gmail.com</t>
+  </si>
+  <si>
+    <t>Yashaswini K M</t>
+  </si>
+  <si>
+    <t>yashaswinioy@gmail.com</t>
+  </si>
+  <si>
+    <t>Hanoka p</t>
+  </si>
+  <si>
+    <t>hanoka.vp@gmail.com</t>
+  </si>
+  <si>
+    <t>Udegal Jafer</t>
+  </si>
+  <si>
+    <t>udegaljafer43@gmail.com</t>
+  </si>
+  <si>
+    <t>Likhitha M P</t>
+  </si>
+  <si>
+    <t>likhithamp2@gmail.com</t>
+  </si>
+  <si>
+    <t>Shreeganga H R</t>
+  </si>
+  <si>
+    <t>shreehrganga@gmail.com</t>
+  </si>
+  <si>
+    <t>J Ambika</t>
+  </si>
+  <si>
+    <t>ambikaj744@gmail.com</t>
+  </si>
+  <si>
+    <t>H D Nisarga</t>
+  </si>
+  <si>
+    <t>hdnisarga05@gmail.com</t>
+  </si>
+  <si>
+    <t>Nandana A T</t>
+  </si>
+  <si>
+    <t>nandanaat14@gmail.com</t>
+  </si>
+  <si>
+    <t>Panchami Nagaraj</t>
+  </si>
+  <si>
+    <t>panchaminagaraj20@gmail.com</t>
+  </si>
+  <si>
+    <t>Neha raju bendre</t>
+  </si>
+  <si>
+    <t>nehanehar8050@gmail.com</t>
+  </si>
+  <si>
+    <t>ASHPHAKH</t>
+  </si>
+  <si>
+    <t>skshekh65@gmail.com</t>
+  </si>
+  <si>
+    <t>Angel Susan Joseph</t>
+  </si>
+  <si>
+    <t>1mj22ai006@mvjce.edu.in</t>
+  </si>
+  <si>
+    <t>Mamatha M N</t>
+  </si>
+  <si>
+    <t>m6398024@gmail.com</t>
+  </si>
+  <si>
+    <t>Abhishek appasab kasar</t>
+  </si>
+  <si>
+    <t>abhishekkasar6112@gmail.com</t>
+  </si>
+  <si>
+    <t>Satish S Rathod</t>
+  </si>
+  <si>
+    <t>satishrathod556942@gmail.com</t>
+  </si>
+  <si>
+    <t>Sneha mudnal</t>
+  </si>
+  <si>
+    <t>Snehasharnappam@gmail.com</t>
+  </si>
+  <si>
+    <t>Madhura C</t>
+  </si>
+  <si>
+    <t>madhurac2004@gmail.com</t>
+  </si>
+  <si>
+    <t>RIZWAN AHMAD I M</t>
+  </si>
+  <si>
+    <t>rizwan87922@gmail.com</t>
+  </si>
+  <si>
+    <t>Nithin S R</t>
+  </si>
+  <si>
+    <t>nithinsrnithinsr5@gmail.com</t>
+  </si>
+  <si>
+    <t>MARUTHI GOWDA Y T</t>
+  </si>
+  <si>
+    <t>marugowdayt@gmail.com</t>
+  </si>
+  <si>
+    <t>Meena N</t>
+  </si>
+  <si>
+    <t>mn0422790@gmail.com</t>
+  </si>
+  <si>
+    <t>Shree Gowri B P</t>
+  </si>
+  <si>
+    <t>shreegowribp10@gmail.com</t>
+  </si>
+  <si>
+    <t>Nandini S P</t>
+  </si>
+  <si>
+    <t>nandinispnandu111@gmail.com</t>
+  </si>
+  <si>
+    <t>Rachana Prabhu</t>
+  </si>
+  <si>
+    <t>rachanaprabhu6@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhanya M</t>
+  </si>
+  <si>
+    <t>dhanyamanju1868@gmail.com</t>
+  </si>
+  <si>
+    <t>SAGAR R NEKAR</t>
+  </si>
+  <si>
+    <t>sagarnekar2003@gmail.com</t>
+  </si>
+  <si>
+    <t>Nandana R</t>
+  </si>
+  <si>
+    <t>1mj22cd035@mvjce.edu.in</t>
+  </si>
+  <si>
+    <t>Vijay A R</t>
+  </si>
+  <si>
+    <t>arv547168@gmail.com</t>
+  </si>
+  <si>
+    <t>Sachin B A</t>
+  </si>
+  <si>
+    <t>sachisachin1957@gmail.com</t>
+  </si>
+  <si>
+    <t>Pranav bopaiah P</t>
+  </si>
+  <si>
+    <t>pranavbopaiah@gmail.com</t>
+  </si>
+  <si>
+    <t>Manoj M B</t>
+  </si>
+  <si>
+    <t>manojmb0707@gmail.com</t>
+  </si>
+  <si>
+    <t>Prakruthi A Jain</t>
+  </si>
+  <si>
+    <t>prakruthijain029@gmail.com</t>
+  </si>
+  <si>
+    <t>Laxmi dodawad</t>
+  </si>
+  <si>
+    <t>dodawadlaxmi6@gmail.com</t>
+  </si>
+  <si>
+    <t>Pruthvi Melagiri</t>
+  </si>
+  <si>
+    <t>pruthvimelagiri1@gmail.com</t>
+  </si>
+  <si>
+    <t>R P Nagashri Sajjan</t>
+  </si>
+  <si>
+    <t>sajjannagashri@gmail.com</t>
+  </si>
+  <si>
+    <t>Muskan Nadaf</t>
+  </si>
+  <si>
+    <t>muskannadaf39@gmail.com</t>
+  </si>
+  <si>
+    <t>Ganga Udikeri</t>
+  </si>
+  <si>
+    <t>udikeriganga@gmail.com</t>
+  </si>
+  <si>
+    <t>Kishor R</t>
+  </si>
+  <si>
+    <t>kishorr.ece@skit.org.in</t>
+  </si>
+  <si>
+    <t>SANJEEVA J</t>
+  </si>
+  <si>
+    <t>hgjyothi3@gmail.com</t>
+  </si>
+  <si>
+    <t>R.S Pratheeksha</t>
+  </si>
+  <si>
+    <t>rspratheeksha6876@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajan Chaudhary</t>
+  </si>
+  <si>
+    <t>rjchaudhary510@gmail.com</t>
+  </si>
+  <si>
+    <t>Shashank G N</t>
+  </si>
+  <si>
+    <t>shashankgn19@gmail.com</t>
+  </si>
+  <si>
+    <t>RAZIN SHAZ</t>
+  </si>
+  <si>
+    <t>razinshaz230@gmail.com</t>
+  </si>
+  <si>
+    <t>Adithi Devdas Acharya</t>
+  </si>
+  <si>
+    <t>acharyaadithi13@gmail.com</t>
+  </si>
+  <si>
+    <t>Nikhil B S</t>
+  </si>
+  <si>
+    <t>nikhilbs9164@gmail.com</t>
+  </si>
+  <si>
+    <t>Tharun C N</t>
+  </si>
+  <si>
+    <t>tharuncn55555@gmail.com</t>
+  </si>
+  <si>
+    <t>Devika S Nambiar</t>
+  </si>
+  <si>
+    <t>devikanambiar2004@gmail.com</t>
+  </si>
+  <si>
+    <t>rakshitha3509@gmail.com</t>
+  </si>
+  <si>
+    <t>Santosh Tudavekar</t>
+  </si>
+  <si>
+    <t>santoshtudavekar@gmail.com</t>
+  </si>
+  <si>
+    <t>Manjunath R</t>
+  </si>
+  <si>
+    <t>0505manjunath@gmail.com</t>
+  </si>
+  <si>
+    <t>Badarinadh A P</t>
+  </si>
+  <si>
+    <t>badarinadh4580@gmail.com</t>
+  </si>
+  <si>
+    <t>akshayhk025@gmail.com</t>
+  </si>
+  <si>
+    <t>Abir Goldar</t>
+  </si>
+  <si>
+    <t>abirgoldar018@gmail.com</t>
+  </si>
+  <si>
+    <t>Mohammed Qamar Ahmed</t>
+  </si>
+  <si>
+    <t>qamarahmedofficial2@gmail.com</t>
+  </si>
+  <si>
+    <t>Prakash Raj P</t>
+  </si>
+  <si>
+    <t>rajprakashclg@gmail.com</t>
+  </si>
+  <si>
+    <t>Sangamesh Hiremath</t>
+  </si>
+  <si>
+    <t>sangameshsangamesh850@gmail.com</t>
+  </si>
+  <si>
+    <t>Shivaling Byali</t>
+  </si>
+  <si>
+    <t>byalishivaling@gmail.com</t>
+  </si>
+  <si>
+    <t>Yashaswini Gowda H K</t>
+  </si>
+  <si>
+    <t>yashaswinigowdahk76@gmail.com</t>
+  </si>
+  <si>
+    <t>Swathi M</t>
+  </si>
+  <si>
+    <t>swathi96560@gmail.com</t>
+  </si>
+  <si>
+    <t>J Sneha</t>
+  </si>
+  <si>
+    <t>snehasira2005@gmail.com</t>
+  </si>
+  <si>
+    <t>SAI SAHANA</t>
+  </si>
+  <si>
+    <t>saisahana.ise.rymec@gmail.com</t>
+  </si>
+  <si>
+    <t>santoshtotad8984@gmail.com</t>
+  </si>
+  <si>
+    <t>Sahana B R</t>
+  </si>
+  <si>
+    <t>sahanaravikumar1205@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshata Suresh Kapse</t>
+  </si>
+  <si>
+    <t>akshatakapse29@gmail.com</t>
+  </si>
+  <si>
+    <t>Srinidhi N S</t>
+  </si>
+  <si>
+    <t>nssrinidhi72884@gmail.com</t>
+  </si>
+  <si>
+    <t>Yogitha S</t>
+  </si>
+  <si>
+    <t>yogithas0306@gmail.com</t>
+  </si>
+  <si>
+    <t>Prashanth M Gowda</t>
+  </si>
+  <si>
+    <t>prashanthmgowda28@gmail.com</t>
+  </si>
+  <si>
+    <t>Siddhanth M Muragi</t>
+  </si>
+  <si>
+    <t>1si22im030@sit.ac.in</t>
+  </si>
+  <si>
+    <t>Navya Shree B M</t>
+  </si>
+  <si>
+    <t>navyashree0393@gmail.com</t>
+  </si>
+  <si>
+    <t>Raviraj Hugar</t>
+  </si>
+  <si>
+    <t>rbhugar1709@gmail.com</t>
+  </si>
+  <si>
+    <t>anusha</t>
+  </si>
+  <si>
+    <t>anushamulimani2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Akash K N</t>
+  </si>
+  <si>
+    <t>akash2003akki@gmail.com</t>
+  </si>
+  <si>
+    <t>Shabnam</t>
+  </si>
+  <si>
+    <t>shabnam.hoypuc1@gmail.com</t>
+  </si>
+  <si>
+    <t>Basavaraj S L</t>
+  </si>
+  <si>
+    <t>basavarajloddan@gmail.com</t>
+  </si>
+  <si>
+    <t>Prakash B</t>
+  </si>
+  <si>
+    <t>hazardftwop@gmail.com</t>
+  </si>
+  <si>
+    <t>Nihal</t>
+  </si>
+  <si>
+    <t>nihalhegde1@gmail.com</t>
+  </si>
+  <si>
+    <t>Omkar Mahadev Lohar</t>
+  </si>
+  <si>
+    <t>omkarlohar775@gmail.com</t>
+  </si>
+  <si>
+    <t>Rohan Harugop</t>
+  </si>
+  <si>
+    <t>rohan.harugop@gmail.com</t>
+  </si>
+  <si>
+    <t>Ganavi Kumar</t>
+  </si>
+  <si>
+    <t>ganavik132@gmail.com</t>
+  </si>
+  <si>
+    <t>Rakshitha V</t>
+  </si>
+  <si>
+    <t>rakshithavmy@gmail.com</t>
+  </si>
+  <si>
+    <t>VEENA K R</t>
+  </si>
+  <si>
+    <t>veenaveena86370@gmail.com</t>
+  </si>
+  <si>
+    <t>Pallavi V</t>
+  </si>
+  <si>
+    <t>pallavigowda137@gmail.com</t>
+  </si>
+  <si>
+    <t>Navyashree.G</t>
+  </si>
+  <si>
+    <t>navyashreeg148@gmail.com</t>
+  </si>
+  <si>
+    <t>Dhanush Manjunath Ambig</t>
+  </si>
+  <si>
+    <t>dhanushm2127@gmail.com</t>
+  </si>
+  <si>
+    <t>S ANURANJANI</t>
+  </si>
+  <si>
+    <t>024anuranjani@gmail.com</t>
+  </si>
+  <si>
+    <t>Akshay V P</t>
+  </si>
+  <si>
+    <t>akshaygowda691@gmail.com</t>
+  </si>
+  <si>
+    <t>H Pooja</t>
+  </si>
+  <si>
+    <t>pooja2004.aiml.rymec@gmail.com</t>
+  </si>
+  <si>
+    <t>Naveen Kori</t>
+  </si>
+  <si>
+    <t>k.naveen.aiml.rymec@gmail.com</t>
+  </si>
+  <si>
+    <t>K B Sharath Kumara</t>
+  </si>
+  <si>
+    <t>1bi23is402@bit-bangalore.edu.in</t>
+  </si>
+  <si>
+    <t>Vidya M Nellikoppa</t>
+  </si>
+  <si>
+    <t>vidyamn356@gmail.com</t>
+  </si>
+  <si>
+    <t>Prathima Krishna M</t>
+  </si>
+  <si>
+    <t>prathimakrishna018@gmail.com</t>
+  </si>
+  <si>
+    <t>srujala shetty</t>
+  </si>
+  <si>
+    <t>srujala.22aiml@saividya.ac.in</t>
+  </si>
+  <si>
+    <t>Vishwanath Kadappa Jatti</t>
+  </si>
+  <si>
+    <t>vishujatti95@gmail.com</t>
+  </si>
+  <si>
+    <t>S.venu</t>
+  </si>
+  <si>
+    <t>vvenu6180@gmail.com</t>
+  </si>
+  <si>
+    <t>Pavithra S</t>
+  </si>
+  <si>
+    <t>pavithra22cs054@drttit.edu.in</t>
   </si>
 </sst>
 </file>
@@ -5002,10 +5911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
-  <dimension ref="A1:E1019"/>
+  <dimension ref="A1:E1237"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A908" sqref="A908:XFD908"/>
+    <sheetView tabSelected="1" topLeftCell="A1011" workbookViewId="0">
+      <selection activeCell="B1025" sqref="B1025"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22332,6 +23241,3712 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1020" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1020">
+        <v>1019</v>
+      </c>
+      <c r="B1020" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1020" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1021">
+        <v>1020</v>
+      </c>
+      <c r="B1021" t="s">
+        <v>502</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>503</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1021" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1022">
+        <v>1021</v>
+      </c>
+      <c r="B1022" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1022" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1023">
+        <v>1022</v>
+      </c>
+      <c r="B1023" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1023" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1024">
+        <v>1023</v>
+      </c>
+      <c r="B1024" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>1544</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1024" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1025">
+        <v>1024</v>
+      </c>
+      <c r="B1025" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>1546</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1025" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1026">
+        <v>1025</v>
+      </c>
+      <c r="B1026" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1026" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1027">
+        <v>1026</v>
+      </c>
+      <c r="B1027" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1027" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1028">
+        <v>1027</v>
+      </c>
+      <c r="B1028" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1028" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1029">
+        <v>1028</v>
+      </c>
+      <c r="B1029" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1029" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1030">
+        <v>1029</v>
+      </c>
+      <c r="B1030" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>1552</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1030" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1031">
+        <v>1030</v>
+      </c>
+      <c r="B1031" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>1554</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1031" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1032">
+        <v>1031</v>
+      </c>
+      <c r="B1032" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1032" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1033">
+        <v>1032</v>
+      </c>
+      <c r="B1033" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>1556</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1033" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1034">
+        <v>1033</v>
+      </c>
+      <c r="B1034" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>1558</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1034" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1035">
+        <v>1034</v>
+      </c>
+      <c r="B1035" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>1560</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1035" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1036">
+        <v>1035</v>
+      </c>
+      <c r="B1036" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1036" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1037">
+        <v>1036</v>
+      </c>
+      <c r="B1037" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1037" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1038">
+        <v>1037</v>
+      </c>
+      <c r="B1038" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>1564</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1038" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1039">
+        <v>1038</v>
+      </c>
+      <c r="B1039" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>1562</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1039" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1040">
+        <v>1039</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>1566</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1040" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1041">
+        <v>1040</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>1567</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1041" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1042">
+        <v>1041</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>1569</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1042" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1043">
+        <v>1042</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1043" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1044">
+        <v>1043</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1044" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1045">
+        <v>1044</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1045" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1046">
+        <v>1045</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>1574</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1046" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1047">
+        <v>1046</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1047" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1048">
+        <v>1047</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>1578</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1048" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1049">
+        <v>1048</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>1580</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1049" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1050">
+        <v>1049</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1050" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1051">
+        <v>1050</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>1582</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1051" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1052">
+        <v>1051</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1052" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1053">
+        <v>1052</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1053" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1054">
+        <v>1053</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>1588</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1054" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1055">
+        <v>1054</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>1590</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1055" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1056">
+        <v>1055</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1056" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1057">
+        <v>1056</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>1594</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1057" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1058">
+        <v>1057</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1058" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1059">
+        <v>1058</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1059" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1060">
+        <v>1059</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>1596</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1060" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1061">
+        <v>1060</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>1598</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1061" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1062">
+        <v>1061</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1062" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1063">
+        <v>1062</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1063" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1064">
+        <v>1063</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1064" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1065">
+        <v>1064</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1065" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1066">
+        <v>1065</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1066" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1067">
+        <v>1066</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>1605</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1067" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1068">
+        <v>1067</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1068" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1069">
+        <v>1068</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1069" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1070">
+        <v>1069</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1070" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1071">
+        <v>1070</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>1603</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1071" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1072">
+        <v>1071</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>1611</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1072" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1073">
+        <v>1072</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1073" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1074">
+        <v>1073</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1074" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1075">
+        <v>1074</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>1617</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1075" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1076">
+        <v>1075</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>1619</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1076" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1077">
+        <v>1076</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>1621</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1077" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1078">
+        <v>1077</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>1623</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1078" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1079">
+        <v>1078</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>1625</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1079" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1080">
+        <v>1079</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1080" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1081">
+        <v>1080</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1081" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1082">
+        <v>1081</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1082" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1083">
+        <v>1082</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1083" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1084">
+        <v>1083</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1084" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1085">
+        <v>1084</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1085" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1086">
+        <v>1085</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1086" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1087">
+        <v>1086</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>1576</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1087" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1088">
+        <v>1087</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1088" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1089">
+        <v>1088</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1089" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1090">
+        <v>1089</v>
+      </c>
+      <c r="B1090" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1090" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1091">
+        <v>1090</v>
+      </c>
+      <c r="B1091" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1091" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1092">
+        <v>1091</v>
+      </c>
+      <c r="B1092" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1092" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1093">
+        <v>1092</v>
+      </c>
+      <c r="B1093" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1093" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1094">
+        <v>1093</v>
+      </c>
+      <c r="B1094" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1094" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1095">
+        <v>1094</v>
+      </c>
+      <c r="B1095" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1095" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1096">
+        <v>1095</v>
+      </c>
+      <c r="B1096" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>1401</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1096" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1097">
+        <v>1096</v>
+      </c>
+      <c r="B1097" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1097" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1098">
+        <v>1097</v>
+      </c>
+      <c r="B1098" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1098" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1099">
+        <v>1098</v>
+      </c>
+      <c r="B1099" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1099" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1100">
+        <v>1099</v>
+      </c>
+      <c r="B1100" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1101">
+        <v>1100</v>
+      </c>
+      <c r="B1101" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1101" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1102">
+        <v>1101</v>
+      </c>
+      <c r="B1102" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1102" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1103">
+        <v>1102</v>
+      </c>
+      <c r="B1103" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1103" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1104">
+        <v>1103</v>
+      </c>
+      <c r="B1104" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1104" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1105">
+        <v>1104</v>
+      </c>
+      <c r="B1105" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1105" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1106">
+        <v>1105</v>
+      </c>
+      <c r="B1106" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>1666</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1106" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1107">
+        <v>1106</v>
+      </c>
+      <c r="B1107" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1107" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1108">
+        <v>1107</v>
+      </c>
+      <c r="B1108" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>1670</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1108" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1109">
+        <v>1108</v>
+      </c>
+      <c r="B1109" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1109" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1110">
+        <v>1109</v>
+      </c>
+      <c r="B1110" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>1672</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1110" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1111">
+        <v>1110</v>
+      </c>
+      <c r="B1111" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>1674</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1111" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1112">
+        <v>1111</v>
+      </c>
+      <c r="B1112" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1112" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1113">
+        <v>1112</v>
+      </c>
+      <c r="B1113" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>1676</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1113" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1114">
+        <v>1113</v>
+      </c>
+      <c r="B1114" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>1678</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1114" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1115">
+        <v>1114</v>
+      </c>
+      <c r="B1115" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>1680</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1115" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1116">
+        <v>1115</v>
+      </c>
+      <c r="B1116" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1116" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1117">
+        <v>1116</v>
+      </c>
+      <c r="B1117" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1117" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1118">
+        <v>1117</v>
+      </c>
+      <c r="B1118" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1118" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1119">
+        <v>1118</v>
+      </c>
+      <c r="B1119" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1119" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1120">
+        <v>1119</v>
+      </c>
+      <c r="B1120" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1120" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1121">
+        <v>1120</v>
+      </c>
+      <c r="B1121" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1121" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1122">
+        <v>1121</v>
+      </c>
+      <c r="B1122" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1122" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1123">
+        <v>1122</v>
+      </c>
+      <c r="B1123" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>1684</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1123" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1124">
+        <v>1123</v>
+      </c>
+      <c r="B1124" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1124" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1125">
+        <v>1124</v>
+      </c>
+      <c r="B1125" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1125" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1126">
+        <v>1125</v>
+      </c>
+      <c r="B1126" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1126" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1127">
+        <v>1126</v>
+      </c>
+      <c r="B1127" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1127" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1128">
+        <v>1127</v>
+      </c>
+      <c r="B1128" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>1694</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1128" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1129">
+        <v>1128</v>
+      </c>
+      <c r="B1129" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>1696</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1129" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1130">
+        <v>1129</v>
+      </c>
+      <c r="B1130" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>1698</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1130" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1131">
+        <v>1130</v>
+      </c>
+      <c r="B1131" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D1131" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1131" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1132">
+        <v>1131</v>
+      </c>
+      <c r="B1132" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>1700</v>
+      </c>
+      <c r="D1132" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1132" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1133">
+        <v>1132</v>
+      </c>
+      <c r="B1133" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D1133" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1133" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1134">
+        <v>1133</v>
+      </c>
+      <c r="B1134" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>1702</v>
+      </c>
+      <c r="D1134" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1134" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1135">
+        <v>1134</v>
+      </c>
+      <c r="B1135" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>1704</v>
+      </c>
+      <c r="D1135" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1135" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1136">
+        <v>1135</v>
+      </c>
+      <c r="B1136" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>1706</v>
+      </c>
+      <c r="D1136" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1136" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1137">
+        <v>1136</v>
+      </c>
+      <c r="B1137" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>1012</v>
+      </c>
+      <c r="D1137" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1137" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1138">
+        <v>1137</v>
+      </c>
+      <c r="B1138" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D1138" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1138" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1139">
+        <v>1138</v>
+      </c>
+      <c r="B1139" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>1708</v>
+      </c>
+      <c r="D1139" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1139" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1140">
+        <v>1139</v>
+      </c>
+      <c r="B1140" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D1140" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1140" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1141">
+        <v>1140</v>
+      </c>
+      <c r="B1141" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D1141" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1141" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1142">
+        <v>1141</v>
+      </c>
+      <c r="B1142" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>1710</v>
+      </c>
+      <c r="D1142" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1142" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1143">
+        <v>1142</v>
+      </c>
+      <c r="B1143" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>1714</v>
+      </c>
+      <c r="D1143" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1143" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1144">
+        <v>1143</v>
+      </c>
+      <c r="B1144" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1144" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1144" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1145">
+        <v>1144</v>
+      </c>
+      <c r="B1145" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D1145" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1145" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1146">
+        <v>1145</v>
+      </c>
+      <c r="B1146" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>1716</v>
+      </c>
+      <c r="D1146" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1146" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1147">
+        <v>1146</v>
+      </c>
+      <c r="B1147" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D1147" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1147" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1148">
+        <v>1147</v>
+      </c>
+      <c r="B1148" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>1720</v>
+      </c>
+      <c r="D1148" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1148" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1149">
+        <v>1148</v>
+      </c>
+      <c r="B1149" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D1149" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1149" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1150">
+        <v>1149</v>
+      </c>
+      <c r="B1150" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D1150" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1150" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1151">
+        <v>1150</v>
+      </c>
+      <c r="B1151" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D1151" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1151" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1152">
+        <v>1151</v>
+      </c>
+      <c r="B1152" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D1152" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1152" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1153">
+        <v>1152</v>
+      </c>
+      <c r="B1153" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D1153" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1154">
+        <v>1153</v>
+      </c>
+      <c r="B1154" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D1154" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1154" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1155">
+        <v>1154</v>
+      </c>
+      <c r="B1155" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D1155" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1155" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1156">
+        <v>1155</v>
+      </c>
+      <c r="B1156" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D1156" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1156" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1157">
+        <v>1156</v>
+      </c>
+      <c r="B1157" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>1722</v>
+      </c>
+      <c r="D1157" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1157" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1158">
+        <v>1157</v>
+      </c>
+      <c r="B1158" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D1158" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1158" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1159">
+        <v>1158</v>
+      </c>
+      <c r="B1159" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D1159" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1159" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1160">
+        <v>1159</v>
+      </c>
+      <c r="B1160" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D1160" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1160" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1161">
+        <v>1160</v>
+      </c>
+      <c r="B1161" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D1161" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1161" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1162">
+        <v>1161</v>
+      </c>
+      <c r="B1162" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D1162" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1163">
+        <v>1162</v>
+      </c>
+      <c r="B1163" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1163" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1163" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1164">
+        <v>1163</v>
+      </c>
+      <c r="B1164" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D1164" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1164" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1165">
+        <v>1164</v>
+      </c>
+      <c r="B1165" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D1165" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1165" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1166">
+        <v>1165</v>
+      </c>
+      <c r="B1166" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D1166" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1166" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1167">
+        <v>1166</v>
+      </c>
+      <c r="B1167" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D1167" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1167" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1168">
+        <v>1167</v>
+      </c>
+      <c r="B1168" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>1686</v>
+      </c>
+      <c r="D1168" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1168" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1169">
+        <v>1168</v>
+      </c>
+      <c r="B1169" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1169" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1169" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1170">
+        <v>1169</v>
+      </c>
+      <c r="B1170" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1170" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1170" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1171">
+        <v>1170</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>293</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>1749</v>
+      </c>
+      <c r="D1171" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1171" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1172">
+        <v>1171</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1172" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1172" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1173">
+        <v>1172</v>
+      </c>
+      <c r="B1173" t="s">
+        <v>1592</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D1173" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1173" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1174">
+        <v>1173</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>1750</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>1751</v>
+      </c>
+      <c r="D1174" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1174" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1175">
+        <v>1174</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D1175" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1175" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1176">
+        <v>1175</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D1176" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1176" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1177">
+        <v>1176</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>1752</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D1177" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1177" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1178">
+        <v>1177</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>1755</v>
+      </c>
+      <c r="D1178" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1178" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1179">
+        <v>1178</v>
+      </c>
+      <c r="B1179" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>1756</v>
+      </c>
+      <c r="D1179" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1179" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1180">
+        <v>1179</v>
+      </c>
+      <c r="B1180" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>1758</v>
+      </c>
+      <c r="D1180" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1180" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1181">
+        <v>1180</v>
+      </c>
+      <c r="B1181" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1181" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1181" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1182">
+        <v>1181</v>
+      </c>
+      <c r="B1182" t="s">
+        <v>1761</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>1762</v>
+      </c>
+      <c r="D1182" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1182" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1183">
+        <v>1182</v>
+      </c>
+      <c r="B1183" t="s">
+        <v>1763</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>1764</v>
+      </c>
+      <c r="D1183" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1183" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1184">
+        <v>1183</v>
+      </c>
+      <c r="B1184" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>1766</v>
+      </c>
+      <c r="D1184" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1184" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1185">
+        <v>1184</v>
+      </c>
+      <c r="B1185" t="s">
+        <v>1767</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>1768</v>
+      </c>
+      <c r="D1185" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1185" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1186">
+        <v>1185</v>
+      </c>
+      <c r="B1186" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>1770</v>
+      </c>
+      <c r="D1186" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1186" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1187">
+        <v>1186</v>
+      </c>
+      <c r="B1187" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D1187" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1187" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1188">
+        <v>1187</v>
+      </c>
+      <c r="B1188" t="s">
+        <v>1773</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>1774</v>
+      </c>
+      <c r="D1188" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1188" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1189">
+        <v>1188</v>
+      </c>
+      <c r="B1189" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>1775</v>
+      </c>
+      <c r="D1189" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1189" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1190">
+        <v>1189</v>
+      </c>
+      <c r="B1190" t="s">
+        <v>739</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>740</v>
+      </c>
+      <c r="D1190" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1190" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1191">
+        <v>1190</v>
+      </c>
+      <c r="B1191" t="s">
+        <v>1776</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>1777</v>
+      </c>
+      <c r="D1191" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1191" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1192">
+        <v>1191</v>
+      </c>
+      <c r="B1192" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>1779</v>
+      </c>
+      <c r="D1192" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1192" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1193">
+        <v>1192</v>
+      </c>
+      <c r="B1193" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D1193" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1193" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1194">
+        <v>1193</v>
+      </c>
+      <c r="B1194" t="s">
+        <v>1782</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>1783</v>
+      </c>
+      <c r="D1194" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1194" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1195">
+        <v>1194</v>
+      </c>
+      <c r="B1195" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D1195" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1195" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1196">
+        <v>1195</v>
+      </c>
+      <c r="B1196" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>1785</v>
+      </c>
+      <c r="D1196" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1196" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1197">
+        <v>1196</v>
+      </c>
+      <c r="B1197" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>1787</v>
+      </c>
+      <c r="D1197" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1197" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1198">
+        <v>1197</v>
+      </c>
+      <c r="B1198" t="s">
+        <v>1788</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D1198" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1198" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1199">
+        <v>1198</v>
+      </c>
+      <c r="B1199" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D1199" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1199" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1200">
+        <v>1199</v>
+      </c>
+      <c r="B1200" t="s">
+        <v>1790</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>1791</v>
+      </c>
+      <c r="D1200" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1200" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1201">
+        <v>1200</v>
+      </c>
+      <c r="B1201" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>1793</v>
+      </c>
+      <c r="D1201" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1201" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1202">
+        <v>1201</v>
+      </c>
+      <c r="B1202" t="s">
+        <v>1794</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>1795</v>
+      </c>
+      <c r="D1202" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1202" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1203">
+        <v>1202</v>
+      </c>
+      <c r="B1203" t="s">
+        <v>1796</v>
+      </c>
+      <c r="C1203" t="s">
+        <v>1797</v>
+      </c>
+      <c r="D1203" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1203" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1204">
+        <v>1203</v>
+      </c>
+      <c r="B1204" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1204" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1204" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1204" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1205">
+        <v>1204</v>
+      </c>
+      <c r="B1205" t="s">
+        <v>1798</v>
+      </c>
+      <c r="C1205" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D1205" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1205" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1206">
+        <v>1205</v>
+      </c>
+      <c r="B1206" t="s">
+        <v>1800</v>
+      </c>
+      <c r="C1206" t="s">
+        <v>1801</v>
+      </c>
+      <c r="D1206" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1206" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1207">
+        <v>1206</v>
+      </c>
+      <c r="B1207" t="s">
+        <v>1802</v>
+      </c>
+      <c r="C1207" t="s">
+        <v>1803</v>
+      </c>
+      <c r="D1207" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1207" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1208">
+        <v>1207</v>
+      </c>
+      <c r="B1208" t="s">
+        <v>1804</v>
+      </c>
+      <c r="C1208" t="s">
+        <v>1805</v>
+      </c>
+      <c r="D1208" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1208" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1209">
+        <v>1208</v>
+      </c>
+      <c r="B1209" t="s">
+        <v>1806</v>
+      </c>
+      <c r="C1209" t="s">
+        <v>1807</v>
+      </c>
+      <c r="D1209" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1209" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1210">
+        <v>1209</v>
+      </c>
+      <c r="B1210" t="s">
+        <v>1808</v>
+      </c>
+      <c r="C1210" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D1210" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1210" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1211">
+        <v>1210</v>
+      </c>
+      <c r="B1211" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C1211" t="s">
+        <v>1811</v>
+      </c>
+      <c r="D1211" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1211" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1212">
+        <v>1211</v>
+      </c>
+      <c r="B1212" t="s">
+        <v>1812</v>
+      </c>
+      <c r="C1212" t="s">
+        <v>1813</v>
+      </c>
+      <c r="D1212" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1212" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1213">
+        <v>1212</v>
+      </c>
+      <c r="B1213" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C1213" t="s">
+        <v>1815</v>
+      </c>
+      <c r="D1213" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1213" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1214">
+        <v>1213</v>
+      </c>
+      <c r="B1214" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C1214" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D1214" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1214" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1215">
+        <v>1214</v>
+      </c>
+      <c r="B1215" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C1215" t="s">
+        <v>1817</v>
+      </c>
+      <c r="D1215" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1215" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1216">
+        <v>1215</v>
+      </c>
+      <c r="B1216" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C1216" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D1216" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1216" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1217">
+        <v>1216</v>
+      </c>
+      <c r="B1217" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C1217" t="s">
+        <v>1821</v>
+      </c>
+      <c r="D1217" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1217" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1218">
+        <v>1217</v>
+      </c>
+      <c r="B1218" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C1218" t="s">
+        <v>1032</v>
+      </c>
+      <c r="D1218" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1218" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1219">
+        <v>1218</v>
+      </c>
+      <c r="B1219" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C1219" t="s">
+        <v>1823</v>
+      </c>
+      <c r="D1219" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1219" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1220">
+        <v>1219</v>
+      </c>
+      <c r="B1220" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C1220" t="s">
+        <v>1825</v>
+      </c>
+      <c r="D1220" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1220" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1221">
+        <v>1220</v>
+      </c>
+      <c r="B1221" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C1221" t="s">
+        <v>1827</v>
+      </c>
+      <c r="D1221" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1221" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1222">
+        <v>1221</v>
+      </c>
+      <c r="B1222" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1222" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D1222" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1222" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1223">
+        <v>1222</v>
+      </c>
+      <c r="B1223" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C1223" t="s">
+        <v>1523</v>
+      </c>
+      <c r="D1223" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1223" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1224">
+        <v>1223</v>
+      </c>
+      <c r="B1224" t="s">
+        <v>1828</v>
+      </c>
+      <c r="C1224" t="s">
+        <v>1829</v>
+      </c>
+      <c r="D1224" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1224" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1225">
+        <v>1224</v>
+      </c>
+      <c r="B1225" t="s">
+        <v>1759</v>
+      </c>
+      <c r="C1225" t="s">
+        <v>1760</v>
+      </c>
+      <c r="D1225" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1225" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1226">
+        <v>1225</v>
+      </c>
+      <c r="B1226" t="s">
+        <v>1830</v>
+      </c>
+      <c r="C1226" t="s">
+        <v>1831</v>
+      </c>
+      <c r="D1226" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1226" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1227">
+        <v>1226</v>
+      </c>
+      <c r="B1227" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1227" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D1227" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1227" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1228">
+        <v>1227</v>
+      </c>
+      <c r="B1228" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1228" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D1228" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1228" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1229">
+        <v>1228</v>
+      </c>
+      <c r="B1229" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1229" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D1229" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1229" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1230">
+        <v>1229</v>
+      </c>
+      <c r="B1230" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1230" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D1230" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1230" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1231">
+        <v>1230</v>
+      </c>
+      <c r="B1231" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1231" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1232">
+        <v>1231</v>
+      </c>
+      <c r="B1232" t="s">
+        <v>1832</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>1833</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1232" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1233">
+        <v>1232</v>
+      </c>
+      <c r="B1233" t="s">
+        <v>1834</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>1835</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1233" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1234">
+        <v>1233</v>
+      </c>
+      <c r="B1234" t="s">
+        <v>1836</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>1837</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1234" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1235">
+        <v>1234</v>
+      </c>
+      <c r="B1235" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>1839</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1235" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1236">
+        <v>1235</v>
+      </c>
+      <c r="B1236" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1236" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1237">
+        <v>1236</v>
+      </c>
+      <c r="B1237" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1237" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DBF03-55B8-49FA-9A51-E9003514E250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A7B6AC-3F57-43EE-96B8-671304E9D0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Access" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3709" uniqueCount="1842">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="1891">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -5560,6 +5561,153 @@
   </si>
   <si>
     <t>pavithra22cs054@drttit.edu.in</t>
+  </si>
+  <si>
+    <t>Deepak D</t>
+  </si>
+  <si>
+    <t>meghavathdeepu@gmail.com</t>
+  </si>
+  <si>
+    <t>Meghana sk</t>
+  </si>
+  <si>
+    <t>Meghanask2004@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavana B</t>
+  </si>
+  <si>
+    <t>4ra22cs044@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Keerthana B C</t>
+  </si>
+  <si>
+    <t>keerthanabc2803@gmail.com</t>
+  </si>
+  <si>
+    <t>Snehal Goral</t>
+  </si>
+  <si>
+    <t>snehalgoral712@gmail.com</t>
+  </si>
+  <si>
+    <t>Sanjana D</t>
+  </si>
+  <si>
+    <t>Sanjanadevaprakash@gmail.com</t>
+  </si>
+  <si>
+    <t>Uday Shankar A D</t>
+  </si>
+  <si>
+    <t>udayshankar.ad.25@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavana K S</t>
+  </si>
+  <si>
+    <t>4ra22cs046@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Sanchitha k</t>
+  </si>
+  <si>
+    <t>chiruchintu84@gmail.com</t>
+  </si>
+  <si>
+    <t>Vinay CM</t>
+  </si>
+  <si>
+    <t>Vinayvinu2004v@gmail.com</t>
+  </si>
+  <si>
+    <t>Rajeshwari B M</t>
+  </si>
+  <si>
+    <t>4ra22cs084@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Shrusti V M</t>
+  </si>
+  <si>
+    <t>Shrustimoolimath13@gmail.com</t>
+  </si>
+  <si>
+    <t>Siddarth Daddi</t>
+  </si>
+  <si>
+    <t>siddharthdaddi5898@gmail.com</t>
+  </si>
+  <si>
+    <t>Lisha SP</t>
+  </si>
+  <si>
+    <t>lishasp15@gmail.com</t>
+  </si>
+  <si>
+    <t>Bindu.A.M</t>
+  </si>
+  <si>
+    <t>binduganigas@gmail.com</t>
+  </si>
+  <si>
+    <t>Prakruthi S S</t>
+  </si>
+  <si>
+    <t>prakruthiss07@gmail.com</t>
+  </si>
+  <si>
+    <t>H C Roopa</t>
+  </si>
+  <si>
+    <t>4ra22cs026@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Aishwarya A V</t>
+  </si>
+  <si>
+    <t>4ra22cs002@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Spandana HP</t>
+  </si>
+  <si>
+    <t>4ra22cs099@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Nikhil H P</t>
+  </si>
+  <si>
+    <t>gowdanikhil52597@gmail.com</t>
+  </si>
+  <si>
+    <t>Bharath S M</t>
+  </si>
+  <si>
+    <t>4ra22cs009@rithassan.ac.in</t>
+  </si>
+  <si>
+    <t>Harshith A R</t>
+  </si>
+  <si>
+    <t>har603877@gmail.com</t>
+  </si>
+  <si>
+    <t>Arunkumar cm</t>
+  </si>
+  <si>
+    <t>arunacm2002@gmail.com</t>
+  </si>
+  <si>
+    <t>Supriya Rathod</t>
+  </si>
+  <si>
+    <t>priyashree246@gmail.com</t>
+  </si>
+  <si>
+    <t>Snehaprakash2803@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -5911,10 +6059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
-  <dimension ref="A1:E1237"/>
+  <dimension ref="A1:E1264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1011" workbookViewId="0">
-      <selection activeCell="B1025" sqref="B1025"/>
+    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
+      <selection activeCell="B1262" sqref="B1262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26947,8 +27095,496 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1238">
+        <v>1237</v>
+      </c>
+      <c r="B1238" t="s">
+        <v>1842</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>1843</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1238" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1239">
+        <v>1238</v>
+      </c>
+      <c r="B1239" t="s">
+        <v>1844</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>1845</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1239" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1240">
+        <v>1239</v>
+      </c>
+      <c r="B1240" t="s">
+        <v>1846</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>1847</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1240" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1241">
+        <v>1240</v>
+      </c>
+      <c r="B1241" t="s">
+        <v>1848</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1241" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1242">
+        <v>1241</v>
+      </c>
+      <c r="B1242" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>1851</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1242" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1243">
+        <v>1242</v>
+      </c>
+      <c r="B1243" t="s">
+        <v>1852</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>1853</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1243" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1244">
+        <v>1243</v>
+      </c>
+      <c r="B1244" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1244" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1245">
+        <v>1244</v>
+      </c>
+      <c r="B1245" t="s">
+        <v>1854</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1245" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1246">
+        <v>1245</v>
+      </c>
+      <c r="B1246" t="s">
+        <v>1856</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1246" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1247">
+        <v>1246</v>
+      </c>
+      <c r="B1247" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>1859</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1247" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1248">
+        <v>1247</v>
+      </c>
+      <c r="B1248" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>1861</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1248" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1249">
+        <v>1248</v>
+      </c>
+      <c r="B1249" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>1863</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1249" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1250">
+        <v>1249</v>
+      </c>
+      <c r="B1250" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>1865</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1250" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1251">
+        <v>1250</v>
+      </c>
+      <c r="B1251" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>1867</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1251" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1252">
+        <v>1251</v>
+      </c>
+      <c r="B1252" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>1869</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1252" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1253">
+        <v>1252</v>
+      </c>
+      <c r="B1253" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>1871</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1253" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1254">
+        <v>1253</v>
+      </c>
+      <c r="B1254" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>1873</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1254" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1255">
+        <v>1254</v>
+      </c>
+      <c r="B1255" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>1875</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1255" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1256">
+        <v>1255</v>
+      </c>
+      <c r="B1256" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>1877</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1256" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1257">
+        <v>1256</v>
+      </c>
+      <c r="B1257" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>1879</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1257" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1258">
+        <v>1257</v>
+      </c>
+      <c r="B1258" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>1540</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1258" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1259">
+        <v>1258</v>
+      </c>
+      <c r="B1259" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1259" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1260">
+        <v>1259</v>
+      </c>
+      <c r="B1260" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>1883</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1260" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1261">
+        <v>1260</v>
+      </c>
+      <c r="B1261" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1261" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1262">
+        <v>1261</v>
+      </c>
+      <c r="B1262" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1262" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1263">
+        <v>1262</v>
+      </c>
+      <c r="B1263" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>1889</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1263" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1264">
+        <v>1263</v>
+      </c>
+      <c r="B1264" t="s">
+        <v>841</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>1890</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1264" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>763</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A7B6AC-3F57-43EE-96B8-671304E9D0CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F47DE-AEC7-49FE-B3AE-7CC71B6DC548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3793" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1891">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -6061,8 +6061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
-      <selection activeCell="B1262" sqref="B1262"/>
+    <sheetView topLeftCell="A174" workbookViewId="0">
+      <selection activeCell="A183" sqref="A183:XFD183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27562,10 +27562,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27584,6 +27584,76 @@
         <v>679</v>
       </c>
     </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>895</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>946</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>950</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>944</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1437</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1F47DE-AEC7-49FE-B3AE-7CC71B6DC548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B81561-7E8E-4C9A-BE8B-939966BD0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="1891">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -5714,10 +5714,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5743,8 +5750,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6061,8 +6069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1264"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="A183" sqref="A183:XFD183"/>
+    <sheetView topLeftCell="A1086" workbookViewId="0">
+      <selection activeCell="A1095" sqref="A1095:XFD1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27562,10 +27570,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27654,6 +27662,34 @@
         <v>13</v>
       </c>
     </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>31</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1094</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1383</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B81561-7E8E-4C9A-BE8B-939966BD0C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A080D72E-DD5A-4734-A737-D16EB453E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3814" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="1891">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -5730,12 +5730,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -5750,9 +5756,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6069,8 +6076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1264"/>
   <sheetViews>
-    <sheetView topLeftCell="A1086" workbookViewId="0">
-      <selection activeCell="A1095" sqref="A1095:XFD1095"/>
+    <sheetView topLeftCell="A615" workbookViewId="0">
+      <selection activeCell="B627" sqref="B627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27570,39 +27577,45 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="78.1796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>763</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1087</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>895</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1358</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>1359</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -27621,16 +27634,16 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>950</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>1449</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -27663,16 +27676,16 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>31</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>679</v>
       </c>
     </row>
@@ -27688,6 +27701,34 @@
       </c>
       <c r="D8" t="s">
         <v>1250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>947</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>623</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>960</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
   </sheetData>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A080D72E-DD5A-4734-A737-D16EB453E76B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EC71E-AF0E-4CE7-BA1B-0A5450F80A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -27580,7 +27580,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27620,16 +27620,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>946</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1440</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>1441</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>1263</v>
       </c>
     </row>
@@ -27648,30 +27648,30 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>944</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>1437</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>1250</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>182</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
     </row>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E6EC71E-AF0E-4CE7-BA1B-0A5450F80A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6414DE-550A-42AD-93DB-3F73039FBAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -27580,7 +27580,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27690,16 +27690,16 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>1094</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>1383</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>1250</v>
       </c>
     </row>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6414DE-550A-42AD-93DB-3F73039FBAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB558D-135C-4609-8B7A-6C53E9A27553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3820" uniqueCount="1891">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -5708,6 +5708,72 @@
   </si>
   <si>
     <t>Snehaprakash2803@gmail.com</t>
+  </si>
+  <si>
+    <t>Sudeep H R</t>
+  </si>
+  <si>
+    <t>Sudeepgowda5445@gmail.com</t>
+  </si>
+  <si>
+    <t>Chandan H B</t>
+  </si>
+  <si>
+    <t>hbchandan0@gmail.com</t>
+  </si>
+  <si>
+    <t>Nischitha</t>
+  </si>
+  <si>
+    <t>nischithasuresh98@gmail.com</t>
+  </si>
+  <si>
+    <t>Santosh Parashuram Kallolli</t>
+  </si>
+  <si>
+    <t>santoshkallolli8722@gmail.com</t>
+  </si>
+  <si>
+    <t>Likitha T</t>
+  </si>
+  <si>
+    <t>likkilikithareddy@gmail.com</t>
+  </si>
+  <si>
+    <t>HEMANTH K R</t>
+  </si>
+  <si>
+    <t>hemanthkr328@gmail.com</t>
+  </si>
+  <si>
+    <t>Hari Prasad D</t>
+  </si>
+  <si>
+    <t>haridraj05@gmail.com</t>
+  </si>
+  <si>
+    <t>Nisarga AJ</t>
+  </si>
+  <si>
+    <t>nisargaaj@gmail.com</t>
+  </si>
+  <si>
+    <t>Kavana S N</t>
+  </si>
+  <si>
+    <t>kavanasn04@gmail.com</t>
+  </si>
+  <si>
+    <t>Sahana S Nelogi</t>
+  </si>
+  <si>
+    <t>sahananelogi@gmail.com</t>
+  </si>
+  <si>
+    <t>Gowtham N</t>
+  </si>
+  <si>
+    <t>gowthammng6@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -6074,10 +6140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
-  <dimension ref="A1:E1264"/>
+  <dimension ref="A1:E1280"/>
   <sheetViews>
-    <sheetView topLeftCell="A615" workbookViewId="0">
-      <selection activeCell="B627" sqref="B627"/>
+    <sheetView tabSelected="1" topLeftCell="A1261" workbookViewId="0">
+      <selection activeCell="B1268" sqref="B1268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27569,6 +27635,278 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1265">
+        <v>1264</v>
+      </c>
+      <c r="B1265" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>1887</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>1282</v>
+      </c>
+      <c r="E1265" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1266">
+        <v>1265</v>
+      </c>
+      <c r="B1266" t="s">
+        <v>426</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1266" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1267">
+        <v>1266</v>
+      </c>
+      <c r="B1267" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1267" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1268">
+        <v>1267</v>
+      </c>
+      <c r="B1268" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>1894</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1268" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1269">
+        <v>1268</v>
+      </c>
+      <c r="B1269" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>1885</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E1269" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1270">
+        <v>1269</v>
+      </c>
+      <c r="B1270" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>1896</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1270" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1271">
+        <v>1270</v>
+      </c>
+      <c r="B1271" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1271" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1272">
+        <v>1271</v>
+      </c>
+      <c r="B1272" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>1898</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1272" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1273">
+        <v>1272</v>
+      </c>
+      <c r="B1273" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>1900</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E1273" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1274">
+        <v>1273</v>
+      </c>
+      <c r="B1274" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>1902</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1274" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1275">
+        <v>1274</v>
+      </c>
+      <c r="B1275" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>1904</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1275" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1276">
+        <v>1275</v>
+      </c>
+      <c r="B1276" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1276" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1277">
+        <v>1276</v>
+      </c>
+      <c r="B1277" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>1908</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E1277" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1278">
+        <v>1277</v>
+      </c>
+      <c r="B1278" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1278" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1279">
+        <v>1278</v>
+      </c>
+      <c r="B1279" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E1279" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1280">
+        <v>1279</v>
+      </c>
+      <c r="B1280" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>1912</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E1280" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27579,7 +27917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7FB558D-135C-4609-8B7A-6C53E9A27553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFECAF9-E561-4CF5-9151-0B5A0A20B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3868" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -6142,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1261" workbookViewId="0">
-      <selection activeCell="B1268" sqref="B1268"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27915,10 +27915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28069,6 +28069,20 @@
         <v>679</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEFECAF9-E561-4CF5-9151-0B5A0A20B640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB754E-8965-412A-A880-68A34B5D0D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3871" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -6142,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1280"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:D73"/>
+    <sheetView topLeftCell="A916" workbookViewId="0">
+      <selection activeCell="B925" sqref="B925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27915,10 +27915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28083,6 +28083,20 @@
         <v>13</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>923</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFB754E-8965-412A-A880-68A34B5D0D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E77CD77-82C7-4470-8D47-4CCAC019D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3874" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -6142,8 +6142,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1280"/>
   <sheetViews>
-    <sheetView topLeftCell="A916" workbookViewId="0">
-      <selection activeCell="B925" sqref="B925"/>
+    <sheetView topLeftCell="A1094" workbookViewId="0">
+      <selection activeCell="A1103" sqref="A1103:XFD1103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27915,10 +27915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28097,6 +28097,20 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>1102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E77CD77-82C7-4470-8D47-4CCAC019D65C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57808834-185E-4364-939B-4F7F8BE3E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3877" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -6142,9 +6142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1280"/>
   <sheetViews>
-    <sheetView topLeftCell="A1094" workbookViewId="0">
-      <selection activeCell="A1103" sqref="A1103:XFD1103"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -27915,10 +27913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28111,6 +28109,20 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>586</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57808834-185E-4364-939B-4F7F8BE3E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3787D-6EEE-48B7-A334-26E2DCB3D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3880" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -6142,7 +6142,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1280"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="B1252" workbookViewId="0">
+      <selection activeCell="A1259" sqref="A1259:D1259"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -27913,10 +27915,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28123,6 +28125,34 @@
         <v>679</v>
       </c>
     </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>585</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>908</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>1258</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>1881</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E3787D-6EEE-48B7-A334-26E2DCB3D2BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CCB59-B9AB-4E97-A748-210C08628538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{225CCB59-B9AB-4E97-A748-210C08628538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66B839-3A95-42BD-8EF7-C382A4AB71B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6142,9 +6142,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0F17F0-694F-4C6E-A006-A0843DA59A1C}">
   <dimension ref="A1:E1280"/>
   <sheetViews>
-    <sheetView topLeftCell="B1252" workbookViewId="0">
-      <selection activeCell="A1259" sqref="A1259:D1259"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -27917,8 +27915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A66B839-3A95-42BD-8EF7-C382A4AB71B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB4771-0659-4252-B2A1-DAF0B9AC96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3886" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -27913,10 +27913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28151,6 +28151,20 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>1266</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>1892</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82AB4771-0659-4252-B2A1-DAF0B9AC96AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D9A62-D176-415D-BD9F-1C143F30C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3889" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -27913,10 +27913,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -28165,6 +28165,34 @@
         <v>1263</v>
       </c>
     </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>587</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>912</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>584</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>905</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{332D9A62-D176-415D-BD9F-1C143F30C1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B51FC-3389-4314-9556-9B3789C1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3895" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -27913,11 +27913,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -28193,6 +28191,20 @@
         <v>679</v>
       </c>
     </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>1126</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
+++ b/VTU EV Internship Offer Letters/applicants-vtu-internyet-main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\visionastraa-website\VTU EV Internship Offer Letters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B51FC-3389-4314-9556-9B3789C1AFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{792204F0-FCDC-461A-97F4-2B8AB1A73AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{AFF0A958-87A7-41C1-9091-BCD9BA3AC811}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3898" uniqueCount="1913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3901" uniqueCount="1913">
   <si>
     <t>Dizru Dinan Mahaboob</t>
   </si>
@@ -27913,9 +27913,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB41DE9E-5F0E-4615-A7C2-17F9A32E0FAE}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -28205,6 +28207,20 @@
         <v>1250</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>653</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
